--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H2">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N2">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O2">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P2">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q2">
-        <v>6.370693018095333</v>
+        <v>5.055716856362667</v>
       </c>
       <c r="R2">
-        <v>57.336237162858</v>
+        <v>45.501451707264</v>
       </c>
       <c r="S2">
-        <v>0.05653435474364556</v>
+        <v>0.01771957655908503</v>
       </c>
       <c r="T2">
-        <v>0.05653435474364556</v>
+        <v>0.01771957655908503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H3">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I3">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J3">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.392413</v>
       </c>
       <c r="O3">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P3">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q3">
-        <v>17.76063625340244</v>
+        <v>5.329483272611555</v>
       </c>
       <c r="R3">
-        <v>159.845726280622</v>
+        <v>47.965349453504</v>
       </c>
       <c r="S3">
-        <v>0.157610185826047</v>
+        <v>0.01867908934626247</v>
       </c>
       <c r="T3">
-        <v>0.157610185826047</v>
+        <v>0.01867908934626247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H4">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I4">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J4">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N4">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O4">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P4">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q4">
-        <v>6.724107681894222</v>
+        <v>2.420973124515556</v>
       </c>
       <c r="R4">
-        <v>60.516969137048</v>
+        <v>21.78875812064</v>
       </c>
       <c r="S4">
-        <v>0.0596706022316443</v>
+        <v>0.008485170322256552</v>
       </c>
       <c r="T4">
-        <v>0.0596706022316443</v>
+        <v>0.008485170322256553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H5">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I5">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J5">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N5">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O5">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P5">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q5">
-        <v>0.2113032923997778</v>
+        <v>0.1220563638684445</v>
       </c>
       <c r="R5">
-        <v>1.901729631598</v>
+        <v>1.098507274816</v>
       </c>
       <c r="S5">
-        <v>0.001875132777093191</v>
+        <v>0.0004277903896790726</v>
       </c>
       <c r="T5">
-        <v>0.001875132777093191</v>
+        <v>0.0004277903896790727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.051595</v>
       </c>
       <c r="I6">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J6">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N6">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O6">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P6">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q6">
-        <v>0.03987724235166666</v>
+        <v>0.1054616590566667</v>
       </c>
       <c r="R6">
-        <v>0.358895181165</v>
+        <v>0.94915493151</v>
       </c>
       <c r="S6">
-        <v>0.0003538758120826021</v>
+        <v>0.0003696282831485918</v>
       </c>
       <c r="T6">
-        <v>0.0003538758120826022</v>
+        <v>0.0003696282831485919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.051595</v>
       </c>
       <c r="I7">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J7">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.392413</v>
       </c>
       <c r="O7">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P7">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q7">
         <v>0.1111723943038889</v>
@@ -883,10 +883,10 @@
         <v>1.000551548735</v>
       </c>
       <c r="S7">
-        <v>0.0009865582220685246</v>
+        <v>0.0003896436070476089</v>
       </c>
       <c r="T7">
-        <v>0.0009865582220685246</v>
+        <v>0.000389643607047609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.051595</v>
       </c>
       <c r="I8">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J8">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N8">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O8">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P8">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q8">
-        <v>0.04208943530444444</v>
+        <v>0.05050121466388889</v>
       </c>
       <c r="R8">
-        <v>0.37880491774</v>
+        <v>0.454510931975</v>
       </c>
       <c r="S8">
-        <v>0.0003735070987885378</v>
+        <v>0.0001769996550414758</v>
       </c>
       <c r="T8">
-        <v>0.0003735070987885378</v>
+        <v>0.0001769996550414759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.051595</v>
       </c>
       <c r="I9">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J9">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N9">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O9">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P9">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q9">
-        <v>0.001322649290555555</v>
+        <v>0.002546081396111111</v>
       </c>
       <c r="R9">
-        <v>0.011903843615</v>
+        <v>0.022914732565</v>
       </c>
       <c r="S9">
-        <v>1.1737361065948E-05</v>
+        <v>8.923657219307025E-06</v>
       </c>
       <c r="T9">
-        <v>1.1737361065948E-05</v>
+        <v>8.923657219307028E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H10">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I10">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J10">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N10">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O10">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P10">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q10">
-        <v>5.877984357381667</v>
+        <v>19.514241523262</v>
       </c>
       <c r="R10">
-        <v>52.901859216435</v>
+        <v>175.628173709358</v>
       </c>
       <c r="S10">
-        <v>0.0521619942907194</v>
+        <v>0.06839467210841615</v>
       </c>
       <c r="T10">
-        <v>0.05216199429071938</v>
+        <v>0.06839467210841615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H11">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I11">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J11">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.392413</v>
       </c>
       <c r="O11">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P11">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q11">
-        <v>16.38703070107389</v>
+        <v>20.57093518697366</v>
       </c>
       <c r="R11">
-        <v>147.483276309665</v>
+        <v>185.138416682763</v>
       </c>
       <c r="S11">
-        <v>0.1454206322951188</v>
+        <v>0.07209823478916129</v>
       </c>
       <c r="T11">
-        <v>0.1454206322951188</v>
+        <v>0.07209823478916129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H12">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I12">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J12">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N12">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O12">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P12">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q12">
-        <v>6.204065971984445</v>
+        <v>9.344560942661667</v>
       </c>
       <c r="R12">
-        <v>55.83659374786</v>
+        <v>84.101048483955</v>
       </c>
       <c r="S12">
-        <v>0.0550556847609668</v>
+        <v>0.03275137191002758</v>
       </c>
       <c r="T12">
-        <v>0.05505568476096679</v>
+        <v>0.03275137191002758</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H13">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I13">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J13">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N13">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O13">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P13">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q13">
-        <v>0.1949611202205556</v>
+        <v>0.4711176340863333</v>
       </c>
       <c r="R13">
-        <v>1.754650081985</v>
+        <v>4.240058706777</v>
       </c>
       <c r="S13">
-        <v>0.001730110225129432</v>
+        <v>0.001651201050751437</v>
       </c>
       <c r="T13">
-        <v>0.001730110225129432</v>
+        <v>0.001651201050751438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H14">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I14">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J14">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.318669</v>
+        <v>6.132086</v>
       </c>
       <c r="N14">
-        <v>6.956007</v>
+        <v>18.396258</v>
       </c>
       <c r="O14">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="P14">
-        <v>0.2050647402235351</v>
+        <v>0.3910602616134352</v>
       </c>
       <c r="Q14">
-        <v>10.819598198693</v>
+        <v>86.90117152941467</v>
       </c>
       <c r="R14">
-        <v>97.37638378823699</v>
+        <v>782.110543764732</v>
       </c>
       <c r="S14">
-        <v>0.09601451537708754</v>
+        <v>0.3045763846627854</v>
       </c>
       <c r="T14">
-        <v>0.09601451537708754</v>
+        <v>0.3045763846627854</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H15">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I15">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J15">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.392413</v>
       </c>
       <c r="O15">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="P15">
-        <v>0.5716929459893448</v>
+        <v>0.4122361243844145</v>
       </c>
       <c r="Q15">
-        <v>30.16358620155366</v>
+        <v>91.60685876890021</v>
       </c>
       <c r="R15">
-        <v>271.472275813983</v>
+        <v>824.4617289201019</v>
       </c>
       <c r="S15">
-        <v>0.2676755696461105</v>
+        <v>0.3210691566419431</v>
       </c>
       <c r="T15">
-        <v>0.2676755696461105</v>
+        <v>0.3210691566419431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H16">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I16">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J16">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.447297333333333</v>
+        <v>2.936401666666667</v>
       </c>
       <c r="N16">
-        <v>7.341892</v>
+        <v>8.809205</v>
       </c>
       <c r="O16">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="P16">
-        <v>0.2164407217717363</v>
+        <v>0.1872625406703027</v>
       </c>
       <c r="Q16">
-        <v>11.41981620464133</v>
+        <v>41.61336695445222</v>
       </c>
       <c r="R16">
-        <v>102.778345841772</v>
+        <v>374.52030259007</v>
       </c>
       <c r="S16">
-        <v>0.1013409276803367</v>
+        <v>0.1458489987829771</v>
       </c>
       <c r="T16">
-        <v>0.1013409276803367</v>
+        <v>0.1458489987829771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H17">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I17">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J17">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.07690566666666666</v>
+        <v>0.1480423333333333</v>
       </c>
       <c r="N17">
-        <v>0.230717</v>
+        <v>0.444127</v>
       </c>
       <c r="O17">
-        <v>0.006801592015383732</v>
+        <v>0.00944107333184771</v>
       </c>
       <c r="P17">
-        <v>0.006801592015383732</v>
+        <v>0.009441073331847712</v>
       </c>
       <c r="Q17">
-        <v>0.3588646816496667</v>
+        <v>2.097989526339778</v>
       </c>
       <c r="R17">
-        <v>3.229782134847</v>
+        <v>18.881905737058</v>
       </c>
       <c r="S17">
-        <v>0.003184611652095161</v>
+        <v>0.007353158234197892</v>
       </c>
       <c r="T17">
-        <v>0.003184611652095161</v>
+        <v>0.007353158234197895</v>
       </c>
     </row>
   </sheetData>
